--- a/used_files/graphsperminute.xlsx
+++ b/used_files/graphsperminute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,134 +434,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>12.1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hız</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>42.43</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>55.9</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>49.24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>43.01</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>40.31</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>47.17</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>40.31</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>44.72</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Aşım Oranı</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>21.22</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>59.72</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>40.7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>22.89</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>15.18</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>34.77</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>15.18</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>27.78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Para Cezası</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1508.5</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>6440</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>3136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1508.5</v>
       </c>
       <c r="E4" t="n">
         <v>1508.5</v>
       </c>
       <c r="F4" t="n">
+        <v>1508.5</v>
+      </c>
+      <c r="G4" t="n">
         <v>3136</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1508.5</v>
       </c>
       <c r="H4" t="n">
         <v>1508.5</v>
       </c>
+      <c r="I4" t="n">
+        <v>1508.5</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Aşma Sınıfı</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
         <v>30</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>10</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>10</v>
       </c>
     </row>
